--- a/biology/Médecine/Faculté_des_sciences_médicales_et_paramédicales_de_Marseille/Faculté_des_sciences_médicales_et_paramédicales_de_Marseille.xlsx
+++ b/biology/Médecine/Faculté_des_sciences_médicales_et_paramédicales_de_Marseille/Faculté_des_sciences_médicales_et_paramédicales_de_Marseille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_des_sciences_m%C3%A9dicales_et_param%C3%A9dicales_de_Marseille</t>
+          <t>Faculté_des_sciences_médicales_et_paramédicales_de_Marseille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La faculté des sciences médicales et paramédicales (SMPM) d'Aix-Marseille Université est située à Marseille. La faculté est composée de cinq écoles : médecine, médecine dentaire, maïeutique, sciences de la réadaptation, sciences infirmières.
-La faculté propose des formations en partenariat avec l'Assistance publique - Hôpitaux de Marseille, Centre hospitalier universitaire (CHU)[1].
+La faculté propose des formations en partenariat avec l'Assistance publique - Hôpitaux de Marseille, Centre hospitalier universitaire (CHU).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_des_sciences_m%C3%A9dicales_et_param%C3%A9dicales_de_Marseille</t>
+          <t>Faculté_des_sciences_médicales_et_paramédicales_de_Marseille</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,17 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Située à Marseille, la faculté a ouvert ses portes le 17 mai 1958[2]. Avant cette date, la faculté de médecine était située au palais du Pharo.  
-Antiquité
-Le site internet de la faculté fait remonter l'école de médecine de Marseille au Ier siècle[3] au motif que des médecins célèbres (Charmis et Crinas médecins de Néron, Démosthène Philatèle) sont formés à Marseille à l'époque romaine[4], mais rien ne permet d'affirmer que la ville possédait alors une école de médecine[5]. 
-Époque contemporaine
-En 2017, « Le classement 2017 des facs de médecine[6] » du magazine L'Étudiant donne un taux de réussite toutes filières confondues de 12.10 % ; ce qui est le taux le plus bas parmi les universités ayant répondu au magazine.
-En 2015, « Le classement 2015 des facs de médecine[7] » du magazine L'Étudiant indique un taux de réussite toutes filières confondues parmi les plus bas de France avec 18.08 % de passage en deuxième année. Selon le Pr Georges Leonetti (Doyen de la faculté), ce faible taux vient d'une décision du ministère visant à limiter le numerus clausus dans les régions considérées en sur-dotation médicale. Il estime aussi que les étudiants ont deux fois plus de chances de réussir à Caen ou Brest qu'à Marseille[8].
-En 2017, après l'attaque terroriste de la gare Saint-Charles de Marseille, commise envers une étudiante de la faculté et sa cousine, une plaque commémorative est placée dans les jardins de l’établissement[9].
-Le 12 décembre 2017, le corps d'une jeune étudiante est retrouvé dans sa chambre après qu'elle se fut suicidée en pleine période d'examens[10] — la cause serait une éventuelle surcharge de travail — ; une cellule psychologique[11] a été mise en place pour soutenir les étudiants et les équipes pédagogiques[12].
-En 2012, le département universitaire des sciences infirmières a été créé, à la suite d'une « convention de partenariat pour l’organisation des formations en soins infirmiers conduisant à la collation du grade de licence ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Située à Marseille, la faculté a ouvert ses portes le 17 mai 1958. Avant cette date, la faculté de médecine était située au palais du Pharo.  
 </t>
         </is>
       </c>
@@ -533,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_des_sciences_m%C3%A9dicales_et_param%C3%A9dicales_de_Marseille</t>
+          <t>Faculté_des_sciences_médicales_et_paramédicales_de_Marseille</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,18 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Formation initiale</t>
+          <t>Historique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>À Marseille, la première année commune aux études de santé (médecine, pharmacie, odontologie, maïeutique et masso-kinésithérapie)[13] donne également accès par convention à l'institut de formation de manipulateurs en électroradiologie médicale de l'AP-HM et de l'institut supérieur de rééducation psychomotrice.
-Chaque année, 3 000 étudiants en moyenne s’inscrivaient en première année, ensuite les numerus clausus[14] s’appliquaient individuellement pour chaque filière. Ce chiffre était stable d’année en année. Depuis la réforme des études de santé, 1500 étudiants candidatent en filière PASS ( Parcours Accès Spécifique Santé). D'autres candidats proviennent des filières LAS (Licence Accès Santé). Le numérus apertus s'applique pour déterminer le nombre d'étudiants acceptés dans chaque filière. 
-Dans le cadre du cursus paramédical, sont également proposées des formations en audioprothésiste, ergothérapie[15], masso-kinésithérapie, orthophonie[16], orthoptie[17], pédicurie-podologie[18].
-L'universitarisation des professions paramédicales a donné l'occasion à l'université d'Aix-Marseille de délivrer le grade de licence dans cette profession[19].
-En février 2011, Yvon Berland, président d'AMU et président de l'observatoire national des professions de santé, a rendu, aux ministres de la santé et de l'enseignement supérieur et de la recherche, un rapport co-écrit avec Laurent Hénart et Danielle Cadet relatif aux métiers en santé de niveau intermédiaire intitulé Professionnels d’aujourd’hui et nouveaux métiers : des pistes pour avancer[20].
-En avril 2011, a été signée à Marseille une « convention de partenariat pour l’organisation des formations en soins infirmiers conduisant à la collation du grade de licence »[21].
-En 2012, a été créé le département universitaire des sciences infirmières[22].</t>
+          <t>Antiquité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site internet de la faculté fait remonter l'école de médecine de Marseille au Ier siècle au motif que des médecins célèbres (Charmis et Crinas médecins de Néron, Démosthène Philatèle) sont formés à Marseille à l'époque romaine, mais rien ne permet d'affirmer que la ville possédait alors une école de médecine. 
+</t>
         </is>
       </c>
     </row>
@@ -569,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_des_sciences_m%C3%A9dicales_et_param%C3%A9dicales_de_Marseille</t>
+          <t>Faculté_des_sciences_médicales_et_paramédicales_de_Marseille</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,10 +591,91 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Époque contemporaine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2017, « Le classement 2017 des facs de médecine » du magazine L'Étudiant donne un taux de réussite toutes filières confondues de 12.10 % ; ce qui est le taux le plus bas parmi les universités ayant répondu au magazine.
+En 2015, « Le classement 2015 des facs de médecine » du magazine L'Étudiant indique un taux de réussite toutes filières confondues parmi les plus bas de France avec 18.08 % de passage en deuxième année. Selon le Pr Georges Leonetti (Doyen de la faculté), ce faible taux vient d'une décision du ministère visant à limiter le numerus clausus dans les régions considérées en sur-dotation médicale. Il estime aussi que les étudiants ont deux fois plus de chances de réussir à Caen ou Brest qu'à Marseille.
+En 2017, après l'attaque terroriste de la gare Saint-Charles de Marseille, commise envers une étudiante de la faculté et sa cousine, une plaque commémorative est placée dans les jardins de l’établissement.
+Le 12 décembre 2017, le corps d'une jeune étudiante est retrouvé dans sa chambre après qu'elle se fut suicidée en pleine période d'examens — la cause serait une éventuelle surcharge de travail — ; une cellule psychologique a été mise en place pour soutenir les étudiants et les équipes pédagogiques.
+En 2012, le département universitaire des sciences infirmières a été créé, à la suite d'une « convention de partenariat pour l’organisation des formations en soins infirmiers conduisant à la collation du grade de licence ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Faculté_des_sciences_médicales_et_paramédicales_de_Marseille</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_des_sciences_m%C3%A9dicales_et_param%C3%A9dicales_de_Marseille</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Formation initiale</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>À Marseille, la première année commune aux études de santé (médecine, pharmacie, odontologie, maïeutique et masso-kinésithérapie) donne également accès par convention à l'institut de formation de manipulateurs en électroradiologie médicale de l'AP-HM et de l'institut supérieur de rééducation psychomotrice.
+Chaque année, 3 000 étudiants en moyenne s’inscrivaient en première année, ensuite les numerus clausus s’appliquaient individuellement pour chaque filière. Ce chiffre était stable d’année en année. Depuis la réforme des études de santé, 1500 étudiants candidatent en filière PASS ( Parcours Accès Spécifique Santé). D'autres candidats proviennent des filières LAS (Licence Accès Santé). Le numérus apertus s'applique pour déterminer le nombre d'étudiants acceptés dans chaque filière. 
+Dans le cadre du cursus paramédical, sont également proposées des formations en audioprothésiste, ergothérapie, masso-kinésithérapie, orthophonie, orthoptie, pédicurie-podologie.
+L'universitarisation des professions paramédicales a donné l'occasion à l'université d'Aix-Marseille de délivrer le grade de licence dans cette profession.
+En février 2011, Yvon Berland, président d'AMU et président de l'observatoire national des professions de santé, a rendu, aux ministres de la santé et de l'enseignement supérieur et de la recherche, un rapport co-écrit avec Laurent Hénart et Danielle Cadet relatif aux métiers en santé de niveau intermédiaire intitulé Professionnels d’aujourd’hui et nouveaux métiers : des pistes pour avancer.
+En avril 2011, a été signée à Marseille une « convention de partenariat pour l’organisation des formations en soins infirmiers conduisant à la collation du grade de licence ».
+En 2012, a été créé le département universitaire des sciences infirmières.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Faculté_des_sciences_médicales_et_paramédicales_de_Marseille</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_des_sciences_m%C3%A9dicales_et_param%C3%A9dicales_de_Marseille</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Formation continue</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Unité mixte de formation en santé (UMFCS) assure le développement professionnel continu (DPC) pour toutes les professions de santé, ainsi que des formations courtes et des formations diplômantes. L’UMFCS développe des partenariats avec le service universitaire de formation tout au long de la vie (SUFA) dans le cadre de la validation des acquis.
 L’université des patients propose une formation diplômante, le certificat universitaire d'éducation thérapeutique pour patients experts.
@@ -595,76 +683,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Facult%C3%A9_des_sciences_m%C3%A9dicales_et_param%C3%A9dicales_de_Marseille</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_des_sciences_m%C3%A9dicales_et_param%C3%A9dicales_de_Marseille</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Recherche</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La recherche à la faculté des sciences médicales et paramédicales de Marseille[23] occupe 18 équipes de recherche labellisées[24], en partenariat avec l’Inserm, le CNRS, l’IRD, l’IFSTTAR et le ministère des Armées, dans les domaines de la recherche biomédicale tels que les maladies infectieuses, les neurosciences, la nutrition/vasculaire, la génétique, l'oncologie/immunologie, les sciences humaines et sociales/santé publique, la résonance magnétique/imagerie, l'anthropologie, la biomécanique.
-L'institut hospitalo-universitaire « Méditerranée-Infection » a ouvert début 2017 dans un nouveau bâtiment de 25 000 m2. Abritant 700 salariés, c'est « d'abord un hôpital de recherche » selon le professeur Didier Raoult[25], à l'origine du projet. Il est dédié au diagnostic, à la prise en charge et à l’étude des maladies infectieuses y compris les soins, la recherche et l’enseignement. L'institut a pour membres fondateurs, outre Aix Marseille Université (AMU), l'Assistance publique - Hôpitaux de Marseille (AP-HM), BioMérieux, l'Établissement français du sang (EFS), et l'Institut de recherche pour le développement (IRD), le Service de santé des armées (SSA)[26].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Facult%C3%A9_des_sciences_m%C3%A9dicales_et_param%C3%A9dicales_de_Marseille</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_des_sciences_m%C3%A9dicales_et_param%C3%A9dicales_de_Marseille</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Relations internationales</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le service des relations internationales favorise la création, le développement et l'entretien de relations entre la faculté et les structures hospitalo-universitaires dans le monde[27].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_des_sciences_m%C3%A9dicales_et_param%C3%A9dicales_de_Marseille</t>
+          <t>Faculté_des_sciences_médicales_et_paramédicales_de_Marseille</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -679,14 +704,118 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Recherche</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La recherche à la faculté des sciences médicales et paramédicales de Marseille occupe 18 équipes de recherche labellisées, en partenariat avec l’Inserm, le CNRS, l’IRD, l’IFSTTAR et le ministère des Armées, dans les domaines de la recherche biomédicale tels que les maladies infectieuses, les neurosciences, la nutrition/vasculaire, la génétique, l'oncologie/immunologie, les sciences humaines et sociales/santé publique, la résonance magnétique/imagerie, l'anthropologie, la biomécanique.
+L'institut hospitalo-universitaire « Méditerranée-Infection » a ouvert début 2017 dans un nouveau bâtiment de 25 000 m2. Abritant 700 salariés, c'est « d'abord un hôpital de recherche » selon le professeur Didier Raoult, à l'origine du projet. Il est dédié au diagnostic, à la prise en charge et à l’étude des maladies infectieuses y compris les soins, la recherche et l’enseignement. L'institut a pour membres fondateurs, outre Aix Marseille Université (AMU), l'Assistance publique - Hôpitaux de Marseille (AP-HM), BioMérieux, l'Établissement français du sang (EFS), et l'Institut de recherche pour le développement (IRD), le Service de santé des armées (SSA).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Faculté_des_sciences_médicales_et_paramédicales_de_Marseille</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_des_sciences_m%C3%A9dicales_et_param%C3%A9dicales_de_Marseille</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Relations internationales</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le service des relations internationales favorise la création, le développement et l'entretien de relations entre la faculté et les structures hospitalo-universitaires dans le monde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Faculté_des_sciences_médicales_et_paramédicales_de_Marseille</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_des_sciences_m%C3%A9dicales_et_param%C3%A9dicales_de_Marseille</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Campus Santé</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La faculté des sciences médicales et paramédicales[28] est implantée sur deux sites :
-Secteur Centre (Timone)
-Sur un terrain de 57 273 m2, dans le 5e arrondissement de Marseille[29], sont implantées les facultés de médecine, pharmacie et odontologie. Le bâtiment de la faculté de médecine, conçu par l'architecte René Egger, a obtenu le label « Patrimoine du XXe siècle »[30] en 2014.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La faculté des sciences médicales et paramédicales est implantée sur deux sites :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Faculté_des_sciences_médicales_et_paramédicales_de_Marseille</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_des_sciences_m%C3%A9dicales_et_param%C3%A9dicales_de_Marseille</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Campus Santé</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Secteur Centre (Timone)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sur un terrain de 57 273 m2, dans le 5e arrondissement de Marseille, sont implantées les facultés de médecine, pharmacie et odontologie. Le bâtiment de la faculté de médecine, conçu par l'architecte René Egger, a obtenu le label « Patrimoine du XXe siècle » en 2014.
 Sur ce site sont également implantés :
 l'institut de neurosciences de la Timone ;
 le centre européen d'imagerie médicale (CERIMED) ;
@@ -696,10 +825,44 @@
 l'hôpital de la Conception ;
 les hôpitaux Sud : l'hôpital Sainte-Marguerite et l'hôpital Salvator ;
 le centre régional de lutte contre le cancer (institut Jean Paoli et Irène Calmettes) ;
-l'Institut hospitalo-universitaire Méditerranée infection (ouverture en 2016).
-Secteur Nord
-Située sur un terrain de 63 124 m2, dans le 15e arrondissement de Marseille[29], le site Nord de la faculté accueille l’Ecole de maïeutique, l’Ecole des sciences infirmières, certaines formations de l’Ecole des sciences de la réadaptation : ergothérapie et pédicurie-podologie (y compris la clinique de soins en pédicurie-podologie). La bibliothèque de médecine-maïeutique y est implantée.
-Ce site voisine avec l'hôpital Nord et le pavillon « Mère-Enfant »[31].
+l'Institut hospitalo-universitaire Méditerranée infection (ouverture en 2016).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Faculté_des_sciences_médicales_et_paramédicales_de_Marseille</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_des_sciences_m%C3%A9dicales_et_param%C3%A9dicales_de_Marseille</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Campus Santé</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Secteur Nord</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Située sur un terrain de 63 124 m2, dans le 15e arrondissement de Marseille, le site Nord de la faculté accueille l’Ecole de maïeutique, l’Ecole des sciences infirmières, certaines formations de l’Ecole des sciences de la réadaptation : ergothérapie et pédicurie-podologie (y compris la clinique de soins en pédicurie-podologie). La bibliothèque de médecine-maïeutique y est implantée.
+Ce site voisine avec l'hôpital Nord et le pavillon « Mère-Enfant ».
 </t>
         </is>
       </c>
